--- a/Assignment01Output/Assignment01_Mean_SD_OneByOneInsertion.xlsx
+++ b/Assignment01Output/Assignment01_Mean_SD_OneByOneInsertion.xlsx
@@ -165,14 +165,14 @@
   <dimension ref="A1:C2953"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="B199" activeCellId="0" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
